--- a/data/trans_dic/P33B_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R3-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.04430215660452606</v>
+        <v>0.04430215660452607</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.09233095351167385</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02602613676274373</v>
+        <v>0.02729417135955287</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07093806673005772</v>
+        <v>0.07051345570026375</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05435426831325751</v>
+        <v>0.05262227558639576</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06879272129434341</v>
+        <v>0.07371551586985443</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1200684854751013</v>
+        <v>0.1153426032582115</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08506776570637836</v>
+        <v>0.08529128613292093</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07808271258301304</v>
+        <v>0.08008956561730661</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.123876841703301</v>
+        <v>0.1233449283498015</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1065236137921048</v>
+        <v>0.1085636351667921</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1424188760569584</v>
+        <v>0.1461114005115106</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1778853673011666</v>
+        <v>0.1774471240078649</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1481154363622302</v>
+        <v>0.148944371987043</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1257595882392163</v>
+        <v>0.1242049512575085</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1781551109275772</v>
+        <v>0.1828425607611627</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1632265852259864</v>
+        <v>0.1644926279448058</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2019959893193554</v>
+        <v>0.2010393105439582</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2475456430597218</v>
+        <v>0.2492874526659574</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2154146906122436</v>
+        <v>0.2174147343387781</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.1738234494626126</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2151103758690979</v>
+        <v>0.215110375869098</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.1957343339119856</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1313858903262063</v>
+        <v>0.1354090001148235</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1796313299403786</v>
+        <v>0.1826091013182367</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1677156904174973</v>
+        <v>0.1665066330204965</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2319172762721649</v>
+        <v>0.2318412272653162</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2539206805463824</v>
+        <v>0.2581207657570514</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2274215801942384</v>
+        <v>0.2302904479552013</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05374177229017264</v>
+        <v>0.05027415475011837</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08430236260717647</v>
+        <v>0.08665332483261161</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07554868885744961</v>
+        <v>0.07827861117356201</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1155529584604053</v>
+        <v>0.1141337365554571</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1397918666682093</v>
+        <v>0.1404113809033737</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.115874995455879</v>
+        <v>0.1177398785997528</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1279608172095661</v>
+        <v>0.1283030523843265</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.219480949726605</v>
+        <v>0.220257552059738</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1832796140724013</v>
+        <v>0.1848860261358015</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2067167402835926</v>
+        <v>0.2068503690168202</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3037011661181365</v>
+        <v>0.2956060588804829</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2362037551677733</v>
+        <v>0.2407139815045899</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.2521964006871492</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2182369638542033</v>
+        <v>0.2182369638542034</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1542048113906241</v>
+        <v>0.1502311520852215</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2238690263519424</v>
+        <v>0.2278109634670606</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1989751137921594</v>
+        <v>0.1974668458628166</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2196560967722287</v>
+        <v>0.2136147691277541</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2809135422837957</v>
+        <v>0.2814785956141053</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2413484041484085</v>
+        <v>0.2412261773881501</v>
       </c>
     </row>
     <row r="25">
@@ -952,7 +952,7 @@
         <v>0.2104394055705931</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.3099037570381203</v>
+        <v>0.3099037570381205</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.2611651015568578</v>
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1815916312105025</v>
+        <v>0.1840951486715901</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2867774431694626</v>
+        <v>0.2823495043022095</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2422027686963933</v>
+        <v>0.2410165942206438</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2400969876952565</v>
+        <v>0.2413998202428722</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3407151973626394</v>
+        <v>0.33917687962703</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2826137493906955</v>
+        <v>0.2812409808075496</v>
       </c>
     </row>
     <row r="28">
@@ -1007,10 +1007,10 @@
         <v>0.1544833784981426</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.2201583296902654</v>
+        <v>0.2201583296902653</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.1882404373811206</v>
+        <v>0.1882404373811207</v>
       </c>
     </row>
     <row r="29">
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1410628028153882</v>
+        <v>0.1404877661425593</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2096581977364999</v>
+        <v>0.2085233523276036</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1803753939454212</v>
+        <v>0.1793032977574212</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.168065623630614</v>
+        <v>0.1668470330535761</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2324279539116074</v>
+        <v>0.232063047000463</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1973274072086536</v>
+        <v>0.1965445562060301</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8298</v>
+        <v>8703</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>22421</v>
+        <v>22287</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>34510</v>
+        <v>33410</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>21934</v>
+        <v>23504</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>37949</v>
+        <v>36455</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>54010</v>
+        <v>54152</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>41434</v>
+        <v>42499</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>67698</v>
+        <v>67407</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>114741</v>
+        <v>116938</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>75574</v>
+        <v>77534</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>97213</v>
+        <v>96974</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>159541</v>
+        <v>160434</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>39615</v>
+        <v>39125</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>63491</v>
+        <v>65162</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>109588</v>
+        <v>110438</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>63630</v>
+        <v>63329</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>88221</v>
+        <v>88841</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>144627</v>
+        <v>145969</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>49026</v>
+        <v>50527</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>75797</v>
+        <v>77054</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>133352</v>
+        <v>132391</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>86539</v>
+        <v>86510</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>107145</v>
+        <v>108917</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>180824</v>
+        <v>183106</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>11053</v>
+        <v>10340</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>19122</v>
+        <v>19655</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>32674</v>
+        <v>33855</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23765</v>
+        <v>23473</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>31708</v>
+        <v>31849</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>50115</v>
+        <v>50921</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>34640</v>
+        <v>34733</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>57888</v>
+        <v>58093</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>97955</v>
+        <v>98814</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>55960</v>
+        <v>55996</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>80101</v>
+        <v>77966</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>126241</v>
+        <v>128651</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>110812</v>
+        <v>107957</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>172840</v>
+        <v>175883</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>296605</v>
+        <v>294356</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>157846</v>
+        <v>153505</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>216881</v>
+        <v>217318</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>359769</v>
+        <v>359587</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>144923</v>
+        <v>146921</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>238200</v>
+        <v>234522</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>394471</v>
+        <v>392539</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>191615</v>
+        <v>192654</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>283001</v>
+        <v>281723</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>460288</v>
+        <v>458052</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>498049</v>
+        <v>496019</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>782892</v>
+        <v>778655</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1310397</v>
+        <v>1302608</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>593388</v>
+        <v>589085</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>867918</v>
+        <v>866555</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1433550</v>
+        <v>1427863</v>
       </c>
     </row>
     <row r="40">
